--- a/src/main/resources/template/excel/export/storePlanMoMReportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storePlanMoMReportTemplate.xlsx
@@ -166,22 +166,86 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>${obj.lastMonthProfitAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.lastMonthComplePercentStr}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.currMonthSalePlan}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.currMonthSaleAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.currMonthProfitAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.currMonthCostHbPercentStr}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.currMonthSaleHbPercentStr}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.currMonthComplePercentStr}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.currMonthProfitGrowth}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.nextMonthPlanGrowthRateStr}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(D4:D4+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H4:H4+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(I4:I4+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(P4:P4+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(Q4:Q4+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(R4:R4+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(S4:S4+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(G4:G4+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(C4:C4+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.lastMonthCostAmount}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.lastMonthProfitAmount}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.lastMonthComplePercentStr}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.currMonthSalePlan}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.currMonthCostPlan}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -190,38 +254,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.currMonthSaleAmount}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.currMonthCostAmount}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.currMonthProfitAmount}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.currMonthCostHbPercentStr}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.currMonthSaleHbPercentStr}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.currMonthComplePercentStr}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.currMonthProfitGrowth}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.nextMonthPlanGrowthRateStr}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.nextMonthSalePlan}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -234,30 +270,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(C4:C4+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(D4:D4+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUMPRODUCT(E4:E4+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G4:G4+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(H4:H4+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(I4:I4+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUMPRODUCT(J4:J4+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -267,22 +283,6 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(L4:L4+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(P4:P4+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(Q4:Q4+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(R4:R4+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(S4:S4+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -290,9 +290,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -461,12 +460,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,6 +483,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -890,78 +889,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="13" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -971,7 +970,7 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
@@ -990,10 +989,10 @@
       <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
       <c r="Q3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +1002,7 @@
       <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="14"/>
+      <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1012,59 +1011,59 @@
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="K4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="P4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="Q4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1072,48 +1071,48 @@
         <v>0</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>50</v>
+      <c r="H5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>54</v>
+      <c r="P5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="T5" s="4"/>
     </row>
